--- a/Input data sheets/Input Data r04.xlsx
+++ b/Input data sheets/Input Data r04.xlsx
@@ -1985,16 +1985,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="10">
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.###############"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000"/>
-    <numFmt numFmtId="172" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="#,##0.###############"/>
+    <numFmt numFmtId="171" formatCode="0.000000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="173" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="45" x14ac:knownFonts="1">
     <font>
@@ -2706,14 +2706,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="20" fillId="6" borderId="5"/>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="20" fillId="6" borderId="5"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2756,7 +2756,7 @@
     <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="37" borderId="13"/>
+    <xf numFmtId="168" fontId="3" fillId="37" borderId="13"/>
   </cellStyleXfs>
   <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2799,7 +2799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2848,22 +2848,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2882,7 +2882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="6" borderId="5" xfId="8"/>
+    <xf numFmtId="168" fontId="20" fillId="6" borderId="5" xfId="8"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2942,7 +2942,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2953,17 +2953,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="3" fillId="37" borderId="13" xfId="50"/>
+    <xf numFmtId="168" fontId="3" fillId="37" borderId="13" xfId="50"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2972,7 +2972,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2985,7 +2985,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="37" fillId="6" borderId="6" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="37" fillId="6" borderId="6" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3019,7 +3019,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="6" borderId="5" xfId="8" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="6" borderId="5" xfId="8" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3085,16 +3085,16 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="31" fillId="35" borderId="0" xfId="48" applyNumberFormat="1">
+    <xf numFmtId="169" fontId="31" fillId="35" borderId="0" xfId="48" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="31" fillId="36" borderId="0" xfId="49" applyNumberFormat="1">
+    <xf numFmtId="169" fontId="31" fillId="36" borderId="0" xfId="49" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="36" borderId="0" xfId="49">
       <alignment horizontal="left"/>
     </xf>
@@ -3116,7 +3116,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="13" xfId="50" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="20" fillId="6" borderId="5" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="20" fillId="6" borderId="5" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3143,7 +3143,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11089,7 +11089,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11409,8 +11409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1402"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73:F76"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11418,7 +11418,7 @@
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="13.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="50.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="67.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="85.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.7109375" style="14" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" style="14" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="83"/>
